--- a/NformTester/NformTester/keywordscripts/TST1329_ImportDevicesFromFiles.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1329_ImportDevicesFromFiles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7378" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7382" uniqueCount="824">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3593,9 +3593,6 @@
     <t>.NET Framework</t>
   </si>
   <si>
-    <t>10.146.85.10</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -3615,9 +3612,6 @@
   </si>
   <si>
     <t>"SNMP"</t>
-  </si>
-  <si>
-    <t>"ABC GXT UPS"</t>
   </si>
   <si>
     <t>Checked</t>
@@ -3706,6 +3700,18 @@
   <si>
     <t>Sashimi</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4649,10 +4655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4724,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4743,13 +4749,13 @@
         <v>768</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -4759,13 +4765,13 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>800</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>802</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -4784,10 +4790,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>17</v>
@@ -4815,7 +4821,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4840,7 +4846,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4859,13 +4865,13 @@
         <v>774</v>
       </c>
       <c r="B7" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>577</v>
@@ -4875,22 +4881,22 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>794</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>795</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="2"/>
@@ -4904,7 +4910,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>756</v>
@@ -4933,7 +4939,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -4954,7 +4960,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>19</v>
@@ -4983,7 +4989,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>19</v>
@@ -5012,10 +5018,10 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>578</v>
@@ -5024,7 +5030,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>796</v>
+        <v>822</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -5043,10 +5049,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>89</v>
@@ -5072,7 +5078,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>594</v>
@@ -5084,7 +5090,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -5103,7 +5109,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>594</v>
@@ -5115,10 +5121,10 @@
         <v>7</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="J15" s="5" t="b">
         <v>1</v>
@@ -5138,7 +5144,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>594</v>
@@ -5167,7 +5173,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>594</v>
@@ -5196,7 +5202,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>599</v>
@@ -5227,7 +5233,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="5"/>
@@ -5250,10 +5256,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>578</v>
@@ -5262,7 +5268,7 @@
         <v>56</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>796</v>
+        <v>822</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -5281,10 +5287,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>184</v>
@@ -5306,7 +5312,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>585</v>
@@ -5331,7 +5337,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -5350,10 +5356,10 @@
         <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>183</v>
@@ -5375,7 +5381,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>602</v>
@@ -5400,7 +5406,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>602</v>
@@ -5425,7 +5431,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>602</v>
@@ -5437,7 +5443,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -5452,7 +5458,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>602</v>
@@ -5464,10 +5470,10 @@
         <v>7</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="J28" s="5" t="b">
         <v>1</v>
@@ -5483,7 +5489,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>602</v>
@@ -5508,7 +5514,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>602</v>
@@ -5533,7 +5539,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>599</v>
@@ -5558,7 +5564,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>599</v>
@@ -5583,7 +5589,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>804</v>
+        <v>823</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>602</v>
@@ -5595,10 +5601,10 @@
         <v>7</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="J33" s="5" t="b">
         <v>1</v>
@@ -5614,7 +5620,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>756</v>
@@ -5637,7 +5643,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="5"/>
@@ -5656,7 +5662,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>602</v>
@@ -5668,7 +5674,7 @@
         <v>4</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -5683,7 +5689,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>602</v>
@@ -5708,7 +5714,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>602</v>
@@ -5733,7 +5739,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>599</v>
@@ -5758,7 +5764,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>599</v>
@@ -5783,7 +5789,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>602</v>
@@ -5792,17 +5798,11 @@
         <v>603</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>807</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="J41" s="5" t="b">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
@@ -5814,22 +5814,26 @@
         <v>41</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>804</v>
+        <v>823</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>602</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="J42" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -5841,18 +5845,20 @@
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>602</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>375</v>
+        <v>618</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H43" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>822</v>
+      </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -5866,18 +5872,18 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>602</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>603</v>
+        <v>375</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="11"/>
+      <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -5891,16 +5897,16 @@
         <v>44</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>17</v>
+        <v>603</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="5"/>
@@ -5916,7 +5922,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>622</v>
@@ -5925,7 +5931,7 @@
         <v>17</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="5"/>
@@ -5936,16 +5942,22 @@
       <c r="N46" s="7"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="3:15" ht="15">
+    <row r="47" spans="3:15">
       <c r="C47" s="5">
         <v>46</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>815</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="D47" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H47" s="11"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -5955,25 +5967,17 @@
       <c r="N47" s="7"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="3:15">
+    <row r="48" spans="3:15" ht="15">
       <c r="C48" s="5">
         <v>47</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>796</v>
-      </c>
+      <c r="D48" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="11"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -5987,18 +5991,20 @@
         <v>48</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>99</v>
+        <v>578</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>822</v>
+      </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -6007,16 +6013,22 @@
       <c r="N49" s="7"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="3:15" ht="15">
+    <row r="50" spans="3:15">
       <c r="C50" s="5">
         <v>49</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
+      <c r="D50" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -6031,11 +6043,11 @@
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -6045,22 +6057,16 @@
       <c r="N51" s="7"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="3:15">
+    <row r="52" spans="3:15" ht="15">
       <c r="C52" s="5">
         <v>51</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>790</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="D52" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -6075,13 +6081,13 @@
         <v>52</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F53" s="5" t="s">
-        <v>78</v>
+      <c r="F53" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>2</v>
@@ -6100,23 +6106,19 @@
         <v>53</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>805</v>
+        <v>19</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H54" s="5">
-        <v>1</v>
-      </c>
-      <c r="I54" s="5">
-        <v>0</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
@@ -6129,19 +6131,23 @@
         <v>54</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
+        <v>803</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="5">
+        <v>1</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0</v>
+      </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
@@ -6154,13 +6160,13 @@
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>585</v>
+        <v>803</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>2</v>
@@ -6179,13 +6185,13 @@
         <v>56</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>805</v>
+        <v>585</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>2</v>
@@ -6199,9 +6205,34 @@
       <c r="N57" s="7"/>
       <c r="O57" s="2"/>
     </row>
+    <row r="58" spans="3:15">
+      <c r="C58" s="5">
+        <v>57</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N57">
+  <conditionalFormatting sqref="N2:N58">
     <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6210,16 +6241,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G58">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D4 D7:D8">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E58">
       <formula1>Forms</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F58">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -28098,12 +28129,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST1329_ImportDevicesFromFiles.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1329_ImportDevicesFromFiles.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7382" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7383" uniqueCount="825">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3702,15 +3702,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_0_NAME$</t>
+    <t>Running Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;</t>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4657,8 +4661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4840,7 +4844,7 @@
         <v>773</v>
       </c>
       <c r="B6" s="10">
-        <v>41075</v>
+        <v>41446</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -4884,10 +4888,10 @@
         <v>792</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>793</v>
@@ -4903,9 +4907,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>822</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -4930,11 +4934,9 @@
     </row>
     <row r="9" spans="1:15" ht="15">
       <c r="A9" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>776</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -4954,8 +4956,12 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>776</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
@@ -4981,10 +4987,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -5011,7 +5015,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -5030,7 +5034,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -5042,7 +5046,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -5071,7 +5075,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -5102,7 +5106,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -5137,7 +5141,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -5165,10 +5169,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>783</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -5196,7 +5200,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -5223,11 +5227,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" ht="15">
-      <c r="A19" s="3" t="s">
-        <v>785</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -5249,9 +5251,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>785</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>776</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -5268,7 +5272,7 @@
         <v>56</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -5280,7 +5284,7 @@
     </row>
     <row r="21" spans="1:15" ht="14.25">
       <c r="A21" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -5308,6 +5312,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
@@ -5589,7 +5597,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>602</v>
@@ -5814,7 +5822,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>602</v>
@@ -5857,7 +5865,7 @@
         <v>59</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -6003,7 +6011,7 @@
         <v>59</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
